--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lin7c-Htr2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lin7c-Htr2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.66886266666667</v>
+        <v>8.190874333333333</v>
       </c>
       <c r="H2">
-        <v>38.006588</v>
+        <v>24.572623</v>
       </c>
       <c r="I2">
-        <v>0.1962985892727869</v>
+        <v>0.1295676603100907</v>
       </c>
       <c r="J2">
-        <v>0.2124451419188283</v>
+        <v>0.1394023768750731</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.000867</v>
+        <v>0.0002613333333333333</v>
       </c>
       <c r="N2">
-        <v>0.002601</v>
+        <v>0.000784</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2316100443131462</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2316100443131462</v>
       </c>
       <c r="Q2">
-        <v>0.010983903932</v>
+        <v>0.002140548492444444</v>
       </c>
       <c r="R2">
-        <v>0.098855135388</v>
+        <v>0.019264936432</v>
       </c>
       <c r="S2">
-        <v>0.1962985892727869</v>
+        <v>0.03000917154597078</v>
       </c>
       <c r="T2">
-        <v>0.2124451419188283</v>
+        <v>0.0322869906853936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.554364999999999</v>
+        <v>8.190874333333333</v>
       </c>
       <c r="H3">
-        <v>25.663095</v>
+        <v>24.572623</v>
       </c>
       <c r="I3">
-        <v>0.1325462139583145</v>
+        <v>0.1295676603100907</v>
       </c>
       <c r="J3">
-        <v>0.143448811015379</v>
+        <v>0.1394023768750731</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.002601</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7683899556868538</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7683899556868538</v>
       </c>
       <c r="Q3">
-        <v>0.007416634455</v>
+        <v>0.007101488047000001</v>
       </c>
       <c r="R3">
-        <v>0.066749710095</v>
+        <v>0.063913392423</v>
       </c>
       <c r="S3">
-        <v>0.1325462139583145</v>
+        <v>0.09955848876411992</v>
       </c>
       <c r="T3">
-        <v>0.143448811015379</v>
+        <v>0.1071153861896795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.98412166666667</v>
+        <v>8.554364999999999</v>
       </c>
       <c r="H4">
-        <v>38.952365</v>
+        <v>25.663095</v>
       </c>
       <c r="I4">
-        <v>0.2011833921618715</v>
+        <v>0.1353175513849534</v>
       </c>
       <c r="J4">
-        <v>0.217731744572783</v>
+        <v>0.1455887082535228</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.000867</v>
+        <v>0.0002613333333333333</v>
       </c>
       <c r="N4">
-        <v>0.002601</v>
+        <v>0.000784</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2316100443131462</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2316100443131462</v>
       </c>
       <c r="Q4">
-        <v>0.011257233485</v>
+        <v>0.00223554072</v>
       </c>
       <c r="R4">
-        <v>0.101315101365</v>
+        <v>0.02011986648</v>
       </c>
       <c r="S4">
-        <v>0.2011833921618715</v>
+        <v>0.03134090407261549</v>
       </c>
       <c r="T4">
-        <v>0.217731744572783</v>
+        <v>0.03371980717009214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7154895</v>
+        <v>8.554364999999999</v>
       </c>
       <c r="H5">
-        <v>29.430979</v>
+        <v>25.663095</v>
       </c>
       <c r="I5">
-        <v>0.228010193599213</v>
+        <v>0.1353175513849534</v>
       </c>
       <c r="J5">
-        <v>0.1645101241517669</v>
+        <v>0.1455887082535228</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,27 +750,27 @@
         <v>0.002601</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7683899556868538</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7683899556868538</v>
       </c>
       <c r="Q5">
-        <v>0.0127583293965</v>
+        <v>0.007416634455</v>
       </c>
       <c r="R5">
-        <v>0.076549976379</v>
+        <v>0.066749710095</v>
       </c>
       <c r="S5">
-        <v>0.228010193599213</v>
+        <v>0.1039766473123379</v>
       </c>
       <c r="T5">
-        <v>0.1645101241517669</v>
+        <v>0.1118689010834307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.61589633333333</v>
+        <v>15.38058366666667</v>
       </c>
       <c r="H6">
-        <v>46.847689</v>
+        <v>46.141751</v>
       </c>
       <c r="I6">
-        <v>0.2419616110078141</v>
+        <v>0.2432983536059943</v>
       </c>
       <c r="J6">
-        <v>0.2618641783412426</v>
+        <v>0.2617656960177911</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
+        <v>0.0002613333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.000784</v>
+      </c>
+      <c r="O6">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="P6">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="Q6">
+        <v>0.004019459198222222</v>
+      </c>
+      <c r="R6">
+        <v>0.036175132784</v>
+      </c>
+      <c r="S6">
+        <v>0.05635034245999985</v>
+      </c>
+      <c r="T6">
+        <v>0.06062756445434217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.38058366666667</v>
+      </c>
+      <c r="H7">
+        <v>46.141751</v>
+      </c>
+      <c r="I7">
+        <v>0.2432983536059943</v>
+      </c>
+      <c r="J7">
+        <v>0.2617656960177911</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
         <v>0.000867</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>0.002601</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.013538982121</v>
-      </c>
-      <c r="R6">
-        <v>0.121850839089</v>
-      </c>
-      <c r="S6">
-        <v>0.2419616110078141</v>
-      </c>
-      <c r="T6">
-        <v>0.2618641783412426</v>
+      <c r="O7">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="P7">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="Q7">
+        <v>0.013334966039</v>
+      </c>
+      <c r="R7">
+        <v>0.120014694351</v>
+      </c>
+      <c r="S7">
+        <v>0.1869480111459944</v>
+      </c>
+      <c r="T7">
+        <v>0.201138131563449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.379706</v>
+      </c>
+      <c r="H8">
+        <v>26.759412</v>
+      </c>
+      <c r="I8">
+        <v>0.2116473933682475</v>
+      </c>
+      <c r="J8">
+        <v>0.1518081987657302</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0002613333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.000784</v>
+      </c>
+      <c r="O8">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="P8">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="Q8">
+        <v>0.003496563167999999</v>
+      </c>
+      <c r="R8">
+        <v>0.020979379008</v>
+      </c>
+      <c r="S8">
+        <v>0.0490196621567817</v>
+      </c>
+      <c r="T8">
+        <v>0.03516030364322969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.379706</v>
+      </c>
+      <c r="H9">
+        <v>26.759412</v>
+      </c>
+      <c r="I9">
+        <v>0.2116473933682475</v>
+      </c>
+      <c r="J9">
+        <v>0.1518081987657302</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.000867</v>
+      </c>
+      <c r="N9">
+        <v>0.002601</v>
+      </c>
+      <c r="O9">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="P9">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="Q9">
+        <v>0.011600205102</v>
+      </c>
+      <c r="R9">
+        <v>0.06960123061199999</v>
+      </c>
+      <c r="S9">
+        <v>0.1626277312114658</v>
+      </c>
+      <c r="T9">
+        <v>0.1166478951225005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.71143666666667</v>
+      </c>
+      <c r="H10">
+        <v>53.13431000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2801690413307141</v>
+      </c>
+      <c r="J10">
+        <v>0.3014350200878827</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.0002613333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.000784</v>
+      </c>
+      <c r="O10">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="P10">
+        <v>0.2316100443131462</v>
+      </c>
+      <c r="Q10">
+        <v>0.004628588782222222</v>
+      </c>
+      <c r="R10">
+        <v>0.04165729904000001</v>
+      </c>
+      <c r="S10">
+        <v>0.06488996407777838</v>
+      </c>
+      <c r="T10">
+        <v>0.06981537836008864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.71143666666667</v>
+      </c>
+      <c r="H11">
+        <v>53.13431000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2801690413307141</v>
+      </c>
+      <c r="J11">
+        <v>0.3014350200878827</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.000867</v>
+      </c>
+      <c r="N11">
+        <v>0.002601</v>
+      </c>
+      <c r="O11">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="P11">
+        <v>0.7683899556868538</v>
+      </c>
+      <c r="Q11">
+        <v>0.01535581559</v>
+      </c>
+      <c r="R11">
+        <v>0.13820234031</v>
+      </c>
+      <c r="S11">
+        <v>0.2152790772529357</v>
+      </c>
+      <c r="T11">
+        <v>0.2316196417277941</v>
       </c>
     </row>
   </sheetData>
